--- a/data/imports/envisio-import.xlsx
+++ b/data/imports/envisio-import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="460" windowWidth="22780" windowHeight="16420" activeTab="2"/>
+    <workbookView xWindow="6720" yWindow="460" windowWidth="22780" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
   <si>
     <t>Phoenix</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>vcr1</t>
+  </si>
+  <si>
+    <t>police1</t>
+  </si>
+  <si>
+    <t>police2</t>
   </si>
 </sst>
 </file>
@@ -331,8 +337,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -358,11 +366,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,7 +764,9 @@
       <c r="H2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="J2" s="13" t="s">
         <v>67</v>
       </c>
@@ -767,7 +779,9 @@
       <c r="M2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="O2" s="14" t="s">
         <v>51</v>
       </c>
@@ -2818,7 +2832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
